--- a/docs/data/Lithuania.xlsx
+++ b/docs/data/Lithuania.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="97">
   <si>
-    <t>Total Number of Adverse Reaction Reports</t>
+    <t>Adverse Reaction Reports</t>
   </si>
   <si>
     <t>Deaths</t>
